--- a/src/test/resources/Address.xlsx
+++ b/src/test/resources/Address.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashish/git/repository/EcommerceFramework/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashish/eclipse-workspace/Ecommerce_Framework/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCE16E7-6D0C-2141-AB60-E8E62555CEFB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62B41CD-7A3A-0D4A-91B4-A5CA5425AA1D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" activeTab="1" xr2:uid="{7AE126A3-25CF-E145-9485-C81F3A88BCDB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>First name</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>January </t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>romilraj.anand@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -535,15 +541,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F30331-225D-D045-BD87-97CF45912BAE}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -562,8 +571,11 @@
       <c r="F1" t="s">
         <v>17</v>
       </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -581,11 +593,15 @@
       </c>
       <c r="F2" s="3">
         <v>2024</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{6DC8F586-B6AF-0547-BE82-4F873963A48F}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{0AA2952C-89CB-AC4C-AC87-9808E3BE01A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
